--- a/word2vecの詳細.xlsx
+++ b/word2vecの詳細.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgx03\src\DeepLerningKot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24350" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
   <si>
     <t>語彙</t>
   </si>
@@ -49,8 +56,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -59,8 +66,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -71,8 +78,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -81,8 +88,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>utput</t>
@@ -93,8 +100,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>g</t>
@@ -103,8 +110,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>round truth</t>
@@ -115,8 +122,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -125,8 +132,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="128"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>nput</t>
@@ -177,7 +184,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(*1)</t>
     </r>
@@ -195,7 +202,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(*2)</t>
     </r>
@@ -213,7 +220,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -231,7 +238,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -293,7 +300,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-9</t>
     </r>
@@ -311,7 +318,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+9</t>
     </r>
@@ -340,7 +347,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>in...</t>
     </r>
@@ -358,7 +365,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Wikipedia</t>
     </r>
@@ -387,7 +394,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -405,7 +412,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>200</t>
     </r>
@@ -423,7 +430,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -452,24 +459,561 @@
   <si>
     <t>random seed = 3</t>
   </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単語ベクトルの次元数は2とする。(3以上ではベクトルの可視化ができない。1では少なすぎるのではないかと思われるため。)</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジゲンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カシカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レイヤー1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w010</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w012</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w012</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w1000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w1001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力値</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重み</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 * w000 + v1 * w001 + v2 * w002</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レイヤー2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>v0 * w010 + v1 * w011 + v2 * w012</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1000 + (v0 * w010 + v1 * w011 + v2 * w012) * w1001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1010 + (v0 * w010 + v1 * w011 + v2 * w012) * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1020 + (v0 * w010 + v1 * w011 + v2 * w012) * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>w112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1120 + (v0 * w010 + v1 * w011 + v2 * w012) * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1110 + (v0 * w010 + v1 * w011 + v2 * w012) * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(v0 * w000 + v1 * w001 + v2 * w002) * w1100 + (v0 * w010 + v1 * w011 + v2 * w012) * w1101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>計算の答え</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>第1項</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>第2項</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1000 + w010 * w1001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1010 + w010 * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1020 + w010 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1100 + w010 * w1101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1110 + w010 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1120 + w010 * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o.</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>a = b + c</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o,</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1000 + w011 * w1001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1010 + w011 * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1020 + w011 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1100 + w011 * w1101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1110 + w011 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1120 + w011 * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1000 + w012 * w1001</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1010 + w012 * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1020 + w012 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1100 + w012 * w1101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1110 + w012 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1120 + w012 * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,7 +1021,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -488,156 +1032,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,192 +1061,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -906,79 +1147,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,177 +1162,24 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1225,62 +1248,42 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,7 +1292,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1329,8 +1332,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.409938752783964"/>
-          <c:y val="0.0252314814814815"/>
+          <c:x val="0.40993875278396402"/>
+          <c:y val="2.5231481481481501E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1341,12 +1344,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1373,9 +1396,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$B$23:$B$41</c:f>
@@ -1389,52 +1409,52 @@
                   <c:v>-11.8411455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.9900155</c:v>
+                  <c:v>-5.9900155000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.053082</c:v>
+                  <c:v>-3.0530819999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.5685719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7993972</c:v>
+                  <c:v>-0.79939720000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.41349733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.21335581</c:v>
+                  <c:v>-0.21335581000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.087425984</c:v>
+                  <c:v>-8.7425983999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0011931013</c:v>
+                  <c:v>1.1931012999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.009781428</c:v>
+                  <c:v>-9.781428E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.014077598</c:v>
+                  <c:v>-1.4077598E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.020075748</c:v>
+                  <c:v>-2.0075748000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.029527409</c:v>
+                  <c:v>-2.9527409000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.044925883</c:v>
+                  <c:v>-4.4925883E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.08139936</c:v>
+                  <c:v>-8.1399360000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.15115964</c:v>
+                  <c:v>-0.15115964000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.29362327</c:v>
+                  <c:v>-0.29362326999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.41678724</c:v>
@@ -1449,61 +1469,61 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.6725539</c:v>
+                  <c:v>-0.67255390000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.41338032</c:v>
+                  <c:v>-0.41338032000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.20024095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.09710694</c:v>
+                  <c:v>-9.7106940000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.042172655</c:v>
+                  <c:v>-4.2172655000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.015256939</c:v>
+                  <c:v>-1.5256939000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.002215528</c:v>
+                  <c:v>-2.215528E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0030017383</c:v>
+                  <c:v>3.0017383E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0075202226</c:v>
+                  <c:v>7.5202226000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0012730517</c:v>
+                  <c:v>-1.2730516999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.107870996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2702351</c:v>
+                  <c:v>0.27023510000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5250545</c:v>
+                  <c:v>0.52505449999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0234289</c:v>
+                  <c:v>1.0234289000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0219584</c:v>
+                  <c:v>2.0219583999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.968073</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.867708</c:v>
+                  <c:v>7.8677080000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>15.992818</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.494839</c:v>
+                  <c:v>23.494838999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,11 +1538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="777357953"/>
-        <c:axId val="869591307"/>
+        <c:axId val="141743160"/>
+        <c:axId val="126349600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="777357953"/>
+        <c:axId val="141743160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,14 +1596,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869591307"/>
+        <c:crossAx val="126349600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="869591307"/>
+        <c:axId val="126349600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,9 +1658,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="777357953"/>
+        <c:crossAx val="141743160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,6 +1699,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1690,7 +1713,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1726,7 +1749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1735,12 +1757,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1767,9 +1809,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet6!$A$65:$A$83</c:f>
@@ -1849,7 +1888,7 @@
                   <c:v>-10.887781</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.3305106</c:v>
+                  <c:v>-4.3305106000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1.9108254</c:v>
@@ -1858,46 +1897,46 @@
                   <c:v>-1.0022662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.59952325</c:v>
+                  <c:v>-0.59952324999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.35421273</c:v>
+                  <c:v>-0.35421272999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.19452757</c:v>
+                  <c:v>-0.19452757000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.0820593</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0.00E+00">
-                  <c:v>-0.00012711884</c:v>
+                  <c:v>-8.2059300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-1.2711883999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.020805579</c:v>
+                  <c:v>2.0805579000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0389756</c:v>
+                  <c:v>3.8975599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.06400264</c:v>
+                  <c:v>6.400264E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08598838</c:v>
+                  <c:v>8.5988380000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.11236394</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14168715</c:v>
+                  <c:v>0.14168715000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17348513</c:v>
+                  <c:v>0.17348512999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.21015137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25175706</c:v>
+                  <c:v>0.25175705999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,11 +1951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260630821"/>
-        <c:axId val="530172162"/>
+        <c:axId val="142756280"/>
+        <c:axId val="142754712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260630821"/>
+        <c:axId val="142756280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,14 +2009,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530172162"/>
+        <c:crossAx val="142754712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530172162"/>
+        <c:axId val="142754712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,9 +2071,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260630821"/>
+        <c:crossAx val="142756280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2071,6 +2112,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2084,7 +2126,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2120,7 +2162,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2129,12 +2170,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2161,9 +2222,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$B$2:$B$20</c:f>
@@ -2171,22 +2229,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>35.544</c:v>
+                  <c:v>35.543999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.464458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.168672</c:v>
+                  <c:v>8.1686720000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.731387</c:v>
+                  <c:v>3.7313869999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.697661</c:v>
+                  <c:v>1.6976610000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76901907</c:v>
+                  <c:v>0.76901907000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.34541738</c:v>
@@ -2195,37 +2253,37 @@
                   <c:v>0.1598232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.061190777</c:v>
+                  <c:v>6.1190777000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0020585638</c:v>
+                  <c:v>2.0585638000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0023010317</c:v>
+                  <c:v>2.3010317000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0033471214</c:v>
+                  <c:v>3.3471213999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.006917907</c:v>
+                  <c:v>6.917907E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.006314808</c:v>
+                  <c:v>6.3148079999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.004518503</c:v>
+                  <c:v>4.5185030000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.001194107</c:v>
+                  <c:v>-1.194107E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.010091903</c:v>
+                  <c:v>-1.0091902999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.029841783</c:v>
+                  <c:v>-2.9841783E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.06716925</c:v>
+                  <c:v>-6.716925E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,37 +2295,37 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.04480547</c:v>
+                  <c:v>4.480547E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.028583374</c:v>
+                  <c:v>2.8583374000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01648248</c:v>
+                  <c:v>1.6482480000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.007554939</c:v>
+                  <c:v>7.5549390000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0059270426</c:v>
+                  <c:v>5.9270425999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0045658224</c:v>
+                  <c:v>4.5658223999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0035252853</c:v>
+                  <c:v>3.5252853000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.004150109</c:v>
+                  <c:v>4.1501089999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0026554542</c:v>
+                  <c:v>2.6554541999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002305608</c:v>
+                  <c:v>2.3056079999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04509324</c:v>
+                  <c:v>4.509324E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.11798235</c:v>
@@ -2276,16 +2334,16 @@
                   <c:v>0.26258892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5833258</c:v>
+                  <c:v>0.58332580000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2936674</c:v>
+                  <c:v>1.2936673999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8630767</c:v>
+                  <c:v>2.8630767000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3243065</c:v>
+                  <c:v>6.3243064999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>14.349214</c:v>
@@ -2306,11 +2364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145268222"/>
-        <c:axId val="704576508"/>
+        <c:axId val="141504048"/>
+        <c:axId val="141504432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145268222"/>
+        <c:axId val="141504048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,14 +2422,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704576508"/>
+        <c:crossAx val="141504432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="704576508"/>
+        <c:axId val="141504432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,9 +2484,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145268222"/>
+        <c:crossAx val="141504048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2465,6 +2525,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2478,7 +2539,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2514,7 +2575,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2523,12 +2583,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2555,9 +2635,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$B$44:$B$62</c:f>
@@ -2565,55 +2642,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.07049421</c:v>
+                  <c:v>-7.0494210000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.041687652</c:v>
+                  <c:v>-4.1687651999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.020233197</c:v>
+                  <c:v>-2.0233197000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.01328419</c:v>
+                  <c:v>-1.328419E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.0082375035</c:v>
+                  <c:v>-8.2375034999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.006593066</c:v>
+                  <c:v>-6.5930659999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.0062346323</c:v>
+                  <c:v>-6.2346323E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0037598081</c:v>
+                  <c:v>-3.7598080999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.0025322835</c:v>
+                  <c:v>-2.5322834999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0008694877</c:v>
+                  <c:v>8.6948769999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.051197443</c:v>
+                  <c:v>-5.1197443000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.13283809</c:v>
+                  <c:v>-0.13283808999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.28423202</c:v>
+                  <c:v>-0.28423201999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.62203836</c:v>
+                  <c:v>-0.62203836000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.3538901</c:v>
+                  <c:v>-1.3538901000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.9312708</c:v>
+                  <c:v>-2.9312708000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.3428526</c:v>
+                  <c:v>-6.3428525999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-14.098452</c:v>
@@ -2631,13 +2708,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>33.751102</c:v>
+                  <c:v>33.751102000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.416473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.206829</c:v>
+                  <c:v>8.2068290000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.8194892</c:v>
@@ -2646,43 +2723,43 @@
                   <c:v>1.7670062</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81428957</c:v>
+                  <c:v>0.81428957000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3739255</c:v>
+                  <c:v>0.37392550000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.17512865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.06702505</c:v>
+                  <c:v>6.7025050000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0007958492</c:v>
+                  <c:v>-7.9584920000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0031281651</c:v>
+                  <c:v>3.1281651000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0043021105</c:v>
+                  <c:v>4.3021105000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.004198737</c:v>
+                  <c:v>4.1987370000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.004230342</c:v>
+                  <c:v>4.2303419999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0027690458</c:v>
+                  <c:v>2.7690458000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.0064686975</c:v>
+                  <c:v>-6.4686975000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.01880888</c:v>
+                  <c:v>-1.880888E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.052531548</c:v>
+                  <c:v>-5.2531547999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-0.11096892</c:v>
@@ -2700,11 +2777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="920119129"/>
-        <c:axId val="572479064"/>
+        <c:axId val="142208832"/>
+        <c:axId val="141532280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="920119129"/>
+        <c:axId val="142208832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,14 +2835,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572479064"/>
+        <c:crossAx val="141532280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572479064"/>
+        <c:axId val="141532280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,9 +2897,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="920119129"/>
+        <c:crossAx val="142208832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2859,6 +2938,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2872,7 +2952,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2908,7 +2988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2917,12 +2996,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2949,9 +3048,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$B$65:$B$83</c:f>
@@ -2959,52 +3055,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.07896372</c:v>
+                  <c:v>7.8963720000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.047391105</c:v>
+                  <c:v>4.7391105000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.026596103</c:v>
+                  <c:v>2.6596102999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.014228077</c:v>
+                  <c:v>1.4228077E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.010595336</c:v>
+                  <c:v>1.0595336E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.007458121</c:v>
+                  <c:v>7.4581209999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0047400207</c:v>
+                  <c:v>4.7400207E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0054967566</c:v>
+                  <c:v>5.4967566000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0012620636</c:v>
+                  <c:v>1.2620636000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00046089222</c:v>
+                  <c:v>4.6089222000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.054298278</c:v>
+                  <c:v>5.4298277999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13565096</c:v>
+                  <c:v>0.13565095999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.28312007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60865444</c:v>
+                  <c:v>0.60865444000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3030722</c:v>
+                  <c:v>1.3030721999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7867546</c:v>
+                  <c:v>2.7867546000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.9403324</c:v>
@@ -3025,58 +3121,58 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-33.747623</c:v>
+                  <c:v>-33.747622999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.961546</c:v>
+                  <c:v>-18.961545999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.59856</c:v>
+                  <c:v>-8.5985600000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.062041</c:v>
+                  <c:v>-4.0620409999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9164076</c:v>
+                  <c:v>-1.9164076000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.9002431</c:v>
+                  <c:v>-0.90024309999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.4190854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.20328234</c:v>
+                  <c:v>-0.20328234000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.07664241</c:v>
+                  <c:v>-7.6642409999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.00047610913</c:v>
+                  <c:v>-4.7610912999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.00630617</c:v>
+                  <c:v>-6.3061699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.0067393975</c:v>
+                  <c:v>-6.7393975E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.0062620887</c:v>
+                  <c:v>-6.2620886999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.005083371</c:v>
+                  <c:v>-5.0833709999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0016115954</c:v>
+                  <c:v>1.6115954000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.011163644</c:v>
+                  <c:v>1.1163644E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.041404538</c:v>
+                  <c:v>4.1404537999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10206536</c:v>
+                  <c:v>0.10206535999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.19717012</c:v>
@@ -3094,11 +3190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414959849"/>
-        <c:axId val="870047877"/>
+        <c:axId val="142794976"/>
+        <c:axId val="142795360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414959849"/>
+        <c:axId val="142794976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3152,14 +3248,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="870047877"/>
+        <c:crossAx val="142795360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="870047877"/>
+        <c:axId val="142795360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,9 +3310,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414959849"/>
+        <c:crossAx val="142794976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3253,6 +3351,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3266,7 +3365,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3278,7 +3377,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3304,6 +3402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3311,7 +3410,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3338,9 +3437,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$B$86:$B$104</c:f>
@@ -3348,61 +3444,61 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.22321169</c:v>
+                  <c:v>0.22321168999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13601841</c:v>
+                  <c:v>0.13601841000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14629805</c:v>
+                  <c:v>0.14629805000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14796278</c:v>
+                  <c:v>0.14796277999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06949907</c:v>
+                  <c:v>6.9499069999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.024720635</c:v>
+                  <c:v>2.4720635000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0043899207</c:v>
+                  <c:v>4.3899207000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0005246907</c:v>
+                  <c:v>5.2469069999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3729366e-5</c:v>
+                  <c:v>9.3729365999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0031871987</c:v>
+                  <c:v>3.1871986999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0863046</c:v>
+                  <c:v>8.6304599999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21883725</c:v>
+                  <c:v>0.21883725000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43520015</c:v>
+                  <c:v>0.43520015000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86809766</c:v>
+                  <c:v>0.86809765999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7279714</c:v>
+                  <c:v>1.7279713999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.373935</c:v>
+                  <c:v>3.3739349999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.652726</c:v>
+                  <c:v>6.6527260000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>13.255661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.068747</c:v>
+                  <c:v>17.068746999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,10 +3510,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-14.626375</c:v>
+                  <c:v>-14.626374999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.564769</c:v>
+                  <c:v>-4.5647690000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.5269351</c:v>
@@ -3426,49 +3522,49 @@
                   <c:v>-0.23032932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18795593</c:v>
+                  <c:v>0.18795592999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17999032</c:v>
+                  <c:v>0.17999032000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13046296</c:v>
+                  <c:v>0.13046295999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08915325</c:v>
+                  <c:v>8.9153250000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05878133</c:v>
+                  <c:v>5.878133E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0001317425</c:v>
+                  <c:v>1.3174249999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.034294963</c:v>
+                  <c:v>-3.4294962999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.043121</c:v>
+                  <c:v>-4.3121E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.028488409</c:v>
+                  <c:v>-2.8488408999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00037927547</c:v>
+                  <c:v>3.7927547000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0704306</c:v>
+                  <c:v>7.0430599999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2159049</c:v>
+                  <c:v>0.21590490000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5255614</c:v>
+                  <c:v>0.52556139999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1668469</c:v>
+                  <c:v>1.1668468999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6581441</c:v>
+                  <c:v>1.6581440999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,11 +3579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330758995"/>
-        <c:axId val="479728215"/>
+        <c:axId val="142784488"/>
+        <c:axId val="141715048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330758995"/>
+        <c:axId val="142784488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,14 +3637,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479728215"/>
+        <c:crossAx val="141715048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479728215"/>
+        <c:axId val="141715048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3602,9 +3699,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330758995"/>
+        <c:crossAx val="142784488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3642,6 +3740,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3655,7 +3754,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3667,7 +3766,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3693,6 +3791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3700,7 +3799,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3727,9 +3826,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet5!$C$86:$C$104</c:f>
@@ -3737,10 +3833,10 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-14.626375</c:v>
+                  <c:v>-14.626374999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.564769</c:v>
+                  <c:v>-4.5647690000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.5269351</c:v>
@@ -3749,49 +3845,49 @@
                   <c:v>-0.23032932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18795593</c:v>
+                  <c:v>0.18795592999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17999032</c:v>
+                  <c:v>0.17999032000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13046296</c:v>
+                  <c:v>0.13046295999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08915325</c:v>
+                  <c:v>8.9153250000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05878133</c:v>
+                  <c:v>5.878133E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0001317425</c:v>
+                  <c:v>1.3174249999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.034294963</c:v>
+                  <c:v>-3.4294962999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.043121</c:v>
+                  <c:v>-4.3121E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.028488409</c:v>
+                  <c:v>-2.8488408999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00037927547</c:v>
+                  <c:v>3.7927547000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0704306</c:v>
+                  <c:v>7.0430599999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2159049</c:v>
+                  <c:v>0.21590490000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5255614</c:v>
+                  <c:v>0.52556139999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1668469</c:v>
+                  <c:v>1.1668468999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6581441</c:v>
+                  <c:v>1.6581440999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,61 +3899,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.012379404</c:v>
+                  <c:v>1.2379404E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.516101</c:v>
+                  <c:v>-4.5161009999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.612458</c:v>
+                  <c:v>-8.6124580000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-10.595551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.7059674</c:v>
+                  <c:v>-5.7059673999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.1551173</c:v>
+                  <c:v>-2.1551173000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.75491464</c:v>
+                  <c:v>-0.75491463999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.25232193</c:v>
+                  <c:v>-0.25232193000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.07889803</c:v>
+                  <c:v>-7.8898029999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0029797556</c:v>
+                  <c:v>-2.9797555999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.0015714865</c:v>
+                  <c:v>-1.5714864999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.0024510433</c:v>
+                  <c:v>-2.4510433000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.0043684547</c:v>
+                  <c:v>-4.3684546999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.0027855986</c:v>
+                  <c:v>-2.7855986E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.0038887556</c:v>
+                  <c:v>-3.8887556E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.0026423365</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="0.00E+00">
-                  <c:v>-0.00036398653</c:v>
+                  <c:v>-2.6423365000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>-3.6398653E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004946362</c:v>
+                  <c:v>4.9463620000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.013845437</c:v>
+                  <c:v>1.3845437E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,11 +3968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="828601505"/>
-        <c:axId val="871332483"/>
+        <c:axId val="392407464"/>
+        <c:axId val="140660792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="828601505"/>
+        <c:axId val="392407464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3930,14 +4026,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="871332483"/>
+        <c:crossAx val="140660792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="871332483"/>
+        <c:axId val="140660792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,9 +4088,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828601505"/>
+        <c:crossAx val="392407464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4031,6 +4129,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4044,7 +4143,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4075,6 +4174,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>random seed = 0</a:t>
             </a:r>
           </a:p>
@@ -4085,7 +4185,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.410138888888889"/>
-          <c:y val="0.0243055555555556"/>
+          <c:y val="2.4305555555555601E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4096,12 +4196,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4128,9 +4248,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet6!$A$2:$A$20</c:f>
@@ -4204,61 +4321,61 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>27.640865</c:v>
+                  <c:v>27.640865000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10.822039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.382941</c:v>
+                  <c:v>4.3829409999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9706708</c:v>
+                  <c:v>1.9706707999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0564363</c:v>
+                  <c:v>1.0564363000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63349485</c:v>
+                  <c:v>0.63349485000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3798903</c:v>
+                  <c:v>0.37989030000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2091662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0878139</c:v>
+                  <c:v>8.78139E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0033241773</c:v>
+                  <c:v>-3.3241772999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.020296546</c:v>
+                  <c:v>-2.0296545999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.04410358</c:v>
+                  <c:v>-4.4103580000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.0683255</c:v>
+                  <c:v>-6.8325499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.09295432</c:v>
+                  <c:v>-9.2954320000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.120812416</c:v>
+                  <c:v>-0.12081241600000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.15255196</c:v>
+                  <c:v>-0.15255195999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.19043592</c:v>
+                  <c:v>-0.19043592000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.22880386</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.27495077</c:v>
+                  <c:v>-0.27495077000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,11 +4390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="281344426"/>
-        <c:axId val="284136562"/>
+        <c:axId val="140661968"/>
+        <c:axId val="140659616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281344426"/>
+        <c:axId val="140661968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4331,14 +4448,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284136562"/>
+        <c:crossAx val="140659616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284136562"/>
+        <c:axId val="140659616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4392,9 +4510,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281344426"/>
+        <c:crossAx val="140661968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4432,6 +4551,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4445,7 +4565,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4476,12 +4596,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>random seed  = 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4490,12 +4610,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4522,9 +4662,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet6!$A$23:$A$41</c:f>
@@ -4598,61 +4735,61 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-27.722914</c:v>
+                  <c:v>-27.722913999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-10.826527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.3405313</c:v>
+                  <c:v>-4.3405313000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-1.9308885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0209444</c:v>
+                  <c:v>-1.0209444000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.6101537</c:v>
+                  <c:v>-0.61015370000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.36627775</c:v>
+                  <c:v>-0.36627775000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.20092449</c:v>
+                  <c:v>-0.20092449000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.08410366</c:v>
+                  <c:v>-8.4103659999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6705158e-6</c:v>
+                  <c:v>3.6705158E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01941191</c:v>
+                  <c:v>1.9411910000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.042239767</c:v>
+                  <c:v>4.2239766999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.06451423</c:v>
+                  <c:v>6.4514230000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08925299</c:v>
+                  <c:v>8.9252990000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.11844774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1463012</c:v>
+                  <c:v>0.14630119999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17883517</c:v>
+                  <c:v>0.17883516999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21654041</c:v>
+                  <c:v>0.21654040999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2611509</c:v>
+                  <c:v>0.26115090000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,11 +4804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555662049"/>
-        <c:axId val="677636133"/>
+        <c:axId val="140660008"/>
+        <c:axId val="142753144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555662049"/>
+        <c:axId val="140660008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,14 +4862,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677636133"/>
+        <c:crossAx val="142753144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677636133"/>
+        <c:axId val="142753144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4786,9 +4924,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555662049"/>
+        <c:crossAx val="140660008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4826,6 +4965,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4839,7 +4979,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4870,12 +5010,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>random seed = 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4884,12 +5024,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4916,9 +5076,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet6!$A$44:$A$62</c:f>
@@ -4992,46 +5149,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.269012</c:v>
+                  <c:v>-0.26901199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22373974</c:v>
+                  <c:v>-0.22373973999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.18703891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.15044507</c:v>
+                  <c:v>-0.15044506999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.119562104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.09222661</c:v>
+                  <c:v>-9.2226610000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.067078896</c:v>
+                  <c:v>-6.7078895999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.043554664</c:v>
+                  <c:v>-4.3554664E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.020611705</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="0.00E+00">
-                  <c:v>-0.00058654684</c:v>
+                  <c:v>-2.0611705000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>-5.8654683999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.087011226</c:v>
+                  <c:v>8.7011225999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2052266</c:v>
+                  <c:v>0.20522660000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.37111485</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6257011</c:v>
+                  <c:v>0.62570110000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.0405385</c:v>
@@ -5040,7 +5197,7 @@
                   <c:v>1.953222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.371949</c:v>
+                  <c:v>4.3719489999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10.861124</c:v>
@@ -5061,11 +5218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71730738"/>
-        <c:axId val="462547345"/>
+        <c:axId val="142755496"/>
+        <c:axId val="142755888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71730738"/>
+        <c:axId val="142755496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,14 +5276,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462547345"/>
+        <c:crossAx val="142755888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462547345"/>
+        <c:axId val="142755888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,9 +5338,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71730738"/>
+        <c:crossAx val="142755496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5220,6 +5379,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10791,7 +10951,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -10805,14 +10965,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2468245" y="4195445"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10835,7 +10995,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Text Box 3"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -10877,13 +11037,13 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>+9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10902,7 +11062,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Text Box 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11049,7 +11209,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>-9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11068,7 +11227,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Text Box 5"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11215,7 +11374,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11234,14 +11392,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>96520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2471420" y="210820"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11264,7 +11422,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Text Box 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11411,7 +11569,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>+9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11430,7 +11587,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Text Box 8"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11577,7 +11734,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>-9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11596,7 +11752,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Text Box 9"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11743,7 +11899,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11762,14 +11917,14 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2453005" y="8197215"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11792,7 +11947,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Text Box 11"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -11939,7 +12094,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>+9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11958,7 +12112,7 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Text Box 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12105,7 +12259,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>-9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12124,7 +12277,7 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>118745</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Text Box 13"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12271,7 +12424,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12290,14 +12442,14 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="15" name="Chart 14"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2484120" y="12212955"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12320,7 +12472,7 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Text Box 15"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12467,7 +12619,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>+9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12486,7 +12637,7 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Text Box 16"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12633,7 +12784,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>-9</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12652,7 +12802,7 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Text Box 17"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -12799,7 +12949,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12818,14 +12967,14 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="20" name="Chart 19"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3454400" y="16916400"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12848,14 +12997,14 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="21" name="Chart 20"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3454400" y="16916400"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12869,7 +13018,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -12883,14 +13032,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2092325" y="184150"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12913,14 +13062,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2130425" y="4222750"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12943,14 +13092,14 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2120900" y="8175625"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12973,14 +13122,14 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2117725" y="12188825"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13274,204 +13423,1478 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E13"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31:P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="3.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="10">
         <v>-1</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="10">
         <v>-1</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="10">
         <v>-1</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="10">
         <v>-1</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="10">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="10">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C25" s="10">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
+      <c r="E29" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O34" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O38" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O41" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O42" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O44" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C33" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C35" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F48" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F49" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C55" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="10">
+        <v>1</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F58" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F60" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.62857142857143" customWidth="1"/>
-    <col min="3" max="3" width="2.62857142857143" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="2.62857142857143" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="2.62857142857143" customWidth="1"/>
-    <col min="9" max="9" width="6.36190476190476" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -13480,12 +14903,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>-1</v>
       </c>
@@ -13497,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -13509,10 +14932,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="20">
-        <v>0.5031966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.50319659999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>0</v>
       </c>
@@ -13527,7 +14950,7 @@
         <v>0.2495279</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>0</v>
       </c>
@@ -13539,10 +14962,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="22">
-        <v>0.24727556</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:9">
+        <v>0.24727556000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -13552,7 +14975,7 @@
       <c r="E7" s="17"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17">
@@ -13563,7 +14986,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14">
@@ -13573,10 +14996,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="20">
-        <v>0.50319666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.50319665999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15">
@@ -13586,10 +15009,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="21">
-        <v>0.24952787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.24952787000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16">
@@ -13599,16 +15022,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="22">
-        <v>0.24727553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.24727552999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>0</v>
       </c>
@@ -13623,7 +15046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>0</v>
       </c>
@@ -13639,10 +15062,10 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="20">
-        <v>0.33338135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.33338135000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -13658,10 +15081,10 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="21">
-        <v>0.33330977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.33330977000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>0</v>
       </c>
@@ -13677,10 +15100,10 @@
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="22">
-        <v>0.33330885</v>
-      </c>
-    </row>
-    <row r="17" s="11" customFormat="1" spans="1:9">
+        <v>0.33330884999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -13690,7 +15113,7 @@
       <c r="E17" s="17"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" s="11" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17">
@@ -13704,7 +15127,7 @@
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14">
@@ -13717,10 +15140,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="20">
-        <v>0.33338135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.33338135000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="15">
@@ -13733,10 +15156,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="21">
-        <v>0.33330977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.33330977000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="16">
@@ -13749,14 +15172,14 @@
         <v>0</v>
       </c>
       <c r="I21" s="22">
-        <v>0.33330885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.33330884999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -13768,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>0</v>
       </c>
@@ -13779,10 +15202,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="20">
-        <v>0.00030494825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>3.0494825000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>0</v>
       </c>
@@ -13793,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="21">
-        <v>0.47610798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.47610797999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>1</v>
       </c>
@@ -13807,10 +15230,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="22">
-        <v>0.5235871</v>
-      </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:9">
+        <v>0.52358709999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -13820,7 +15243,7 @@
       <c r="E27" s="17"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" s="11" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17">
@@ -13831,7 +15254,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="14">
         <v>0</v>
       </c>
@@ -13839,10 +15262,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="20">
-        <v>0.00030494732</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
+        <v>3.0494731999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="15">
         <v>0</v>
       </c>
@@ -13850,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="21">
-        <v>0.47610804</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
+        <v>0.47610804000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="16">
         <v>1</v>
       </c>
@@ -13861,28 +15284,27 @@
         <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>0.523587</v>
+        <v>0.52358700000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -13893,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13904,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13918,7 +15340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13929,7 +15351,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="10">
-        <v>2.396</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="K4" s="10">
         <f>H10*J4</f>
@@ -13939,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -13948,7 +15370,7 @@
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -13956,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="10">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="K6" s="10">
         <f>H10*J6</f>
@@ -13966,15 +15388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="13:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="10">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="K8" s="10">
         <f>H10*J8</f>
@@ -13984,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -13992,7 +15414,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="5:8">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" s="7">
         <v>1</v>
       </c>
@@ -14004,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" s="9">
         <v>0</v>
       </c>
@@ -14012,9 +15434,9 @@
         <v>-2.23</v>
       </c>
     </row>
-    <row r="12" spans="10:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J12" s="10">
-        <v>2.396</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="K12" s="10">
         <f>H10*J12</f>
@@ -14024,12 +15446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="13:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="10:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="10">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="K14" s="10">
         <f>H10*J14</f>
@@ -14039,12 +15461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="13:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="10:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J16" s="10">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="K16" s="10">
         <f>H10*J16</f>
@@ -14055,124 +15477,123 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -14180,67 +15601,66 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A107" sqref="A107:B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.7142857142857" style="1"/>
+    <col min="2" max="3" width="11.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-9</v>
       </c>
       <c r="B2" s="1">
-        <v>35.544</v>
+        <v>35.543999999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>0.04480547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4.480547E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-8</v>
       </c>
@@ -14248,54 +15668,54 @@
         <v>18.464458</v>
       </c>
       <c r="C3" s="1">
-        <v>0.028583374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.8583374000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-7</v>
       </c>
       <c r="B4" s="1">
-        <v>8.168672</v>
+        <v>8.1686720000000008</v>
       </c>
       <c r="C4" s="1">
-        <v>0.01648248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.6482480000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-6</v>
       </c>
       <c r="B5" s="1">
-        <v>3.731387</v>
+        <v>3.7313869999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>0.007554939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7.5549390000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.697661</v>
+        <v>1.6976610000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0059270426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>5.9270425999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.76901907</v>
+        <v>0.76901907000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0045658224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.5658223999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-3</v>
       </c>
@@ -14303,10 +15723,10 @@
         <v>0.34541738</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0035252853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.5252853000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -14314,136 +15734,136 @@
         <v>0.1598232</v>
       </c>
       <c r="C9" s="1">
-        <v>0.004150109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4.1501089999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1</v>
       </c>
       <c r="B10" s="1">
-        <v>0.061190777</v>
+        <v>6.1190777000000002E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0026554542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.6554541999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0020585638</v>
+        <v>2.0585638000000001E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.002305608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>2.3056079999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0023010317</v>
+        <v>2.3010317000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.04509324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>4.509324E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0033471214</v>
+        <v>3.3471213999999999E-3</v>
       </c>
       <c r="C13" s="1">
         <v>0.11798235</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.006917907</v>
+        <v>6.917907E-3</v>
       </c>
       <c r="C14" s="1">
         <v>0.26258892</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>0.006314808</v>
+        <v>6.3148079999999999E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.5833258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.58332580000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>0.004518503</v>
+        <v>4.5185030000000001E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>1.2936674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1.2936673999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.001194107</v>
+        <v>-1.194107E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>2.8630767</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2.8630767000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.010091903</v>
+        <v>-1.0091902999999999E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>6.3243065</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>6.3243064999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.029841783</v>
+        <v>-2.9841783E-2</v>
       </c>
       <c r="C19" s="1">
         <v>14.349214</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.06716925</v>
+        <v>-6.716925E-2</v>
       </c>
       <c r="C20" s="1">
         <v>28.777082</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-9</v>
       </c>
@@ -14451,10 +15871,10 @@
         <v>-18.697212</v>
       </c>
       <c r="C23" s="1">
-        <v>-0.6725539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.67255390000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-8</v>
       </c>
@@ -14462,32 +15882,32 @@
         <v>-11.8411455</v>
       </c>
       <c r="C24" s="1">
-        <v>-0.41338032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.41338032000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-7</v>
       </c>
       <c r="B25" s="1">
-        <v>-5.9900155</v>
+        <v>-5.9900155000000002</v>
       </c>
       <c r="C25" s="1">
         <v>-0.20024095</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-6</v>
       </c>
       <c r="B26" s="1">
-        <v>-3.053082</v>
+        <v>-3.0530819999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.09710694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-9.7106940000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-5</v>
       </c>
@@ -14495,21 +15915,21 @@
         <v>-1.5685719</v>
       </c>
       <c r="C27" s="1">
-        <v>-0.042172655</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-4.2172655000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-4</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.7993972</v>
+        <v>-0.79939720000000003</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.015256939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-1.5256939000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-3</v>
       </c>
@@ -14517,131 +15937,131 @@
         <v>-0.41349733</v>
       </c>
       <c r="C29" s="1">
-        <v>-0.002215528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-2.215528E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-2</v>
       </c>
       <c r="B30" s="1">
-        <v>-0.21335581</v>
+        <v>-0.21335581000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>0.0030017383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>3.0017383E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1</v>
       </c>
       <c r="B31" s="1">
-        <v>-0.087425984</v>
+        <v>-8.7425983999999998E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>0.0075202226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>7.5202226000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>0.0011931013</v>
+        <v>1.1931012999999999E-3</v>
       </c>
       <c r="C32" s="1">
-        <v>-0.0012730517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-1.2730516999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>-0.009781428</v>
+        <v>-9.781428E-3</v>
       </c>
       <c r="C33" s="1">
         <v>0.107870996</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>-0.014077598</v>
+        <v>-1.4077598E-2</v>
       </c>
       <c r="C34" s="1">
-        <v>0.2702351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.27023510000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.020075748</v>
+        <v>-2.0075748000000001E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>0.5250545</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.52505449999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>-0.029527409</v>
+        <v>-2.9527409000000001E-2</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0234289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>1.0234289000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>-0.044925883</v>
+        <v>-4.4925883E-2</v>
       </c>
       <c r="C37" s="1">
-        <v>2.0219584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>2.0219583999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38" s="1">
-        <v>-0.08139936</v>
+        <v>-8.1399360000000004E-2</v>
       </c>
       <c r="C38" s="1">
         <v>3.968073</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39" s="1">
-        <v>-0.15115964</v>
+        <v>-0.15115964000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>7.867708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>7.8677080000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>-0.29362327</v>
+        <v>-0.29362326999999999</v>
       </c>
       <c r="C40" s="1">
         <v>15.992818</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -14649,202 +16069,202 @@
         <v>-0.41678724</v>
       </c>
       <c r="C41" s="1">
-        <v>23.494839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>23.494838999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-9</v>
       </c>
       <c r="B44" s="1">
-        <v>-0.07049421</v>
+        <v>-7.0494210000000002E-2</v>
       </c>
       <c r="C44" s="1">
-        <v>33.751102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>33.751102000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-8</v>
       </c>
       <c r="B45" s="1">
-        <v>-0.041687652</v>
+        <v>-4.1687651999999999E-2</v>
       </c>
       <c r="C45" s="1">
         <v>18.416473</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-7</v>
       </c>
       <c r="B46" s="1">
-        <v>-0.020233197</v>
+        <v>-2.0233197000000001E-2</v>
       </c>
       <c r="C46" s="1">
-        <v>8.206829</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>8.2068290000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-6</v>
       </c>
       <c r="B47" s="1">
-        <v>-0.01328419</v>
+        <v>-1.328419E-2</v>
       </c>
       <c r="C47" s="1">
         <v>3.8194892</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-5</v>
       </c>
       <c r="B48" s="1">
-        <v>-0.0082375035</v>
+        <v>-8.2375034999999999E-3</v>
       </c>
       <c r="C48" s="1">
         <v>1.7670062</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-4</v>
       </c>
       <c r="B49" s="1">
-        <v>-0.006593066</v>
+        <v>-6.5930659999999999E-3</v>
       </c>
       <c r="C49" s="1">
-        <v>0.81428957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.81428957000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-3</v>
       </c>
       <c r="B50" s="1">
-        <v>-0.0062346323</v>
+        <v>-6.2346323E-3</v>
       </c>
       <c r="C50" s="1">
-        <v>0.3739255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.37392550000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-2</v>
       </c>
       <c r="B51" s="1">
-        <v>-0.0037598081</v>
+        <v>-3.7598080999999999E-3</v>
       </c>
       <c r="C51" s="1">
         <v>0.17512865</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1</v>
       </c>
       <c r="B52" s="1">
-        <v>-0.0025322835</v>
+        <v>-2.5322834999999999E-3</v>
       </c>
       <c r="C52" s="1">
-        <v>0.06702505</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>6.7025050000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="1">
-        <v>0.0008694877</v>
+        <v>8.6948769999999997E-4</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.0007958492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-7.9584920000000002E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" s="1">
-        <v>-0.051197443</v>
+        <v>-5.1197443000000002E-2</v>
       </c>
       <c r="C54" s="1">
-        <v>0.0031281651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>3.1281651000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>-0.13283809</v>
+        <v>-0.13283808999999999</v>
       </c>
       <c r="C55" s="1">
-        <v>0.0043021105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>4.3021105000000002E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>-0.28423202</v>
+        <v>-0.28423201999999997</v>
       </c>
       <c r="C56" s="1">
-        <v>0.004198737</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>4.1987370000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57" s="1">
-        <v>-0.62203836</v>
+        <v>-0.62203836000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>0.004230342</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>4.2303419999999998E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
       <c r="B58" s="1">
-        <v>-1.3538901</v>
+        <v>-1.3538901000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>0.0027690458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>2.7690458000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>-2.9312708</v>
+        <v>-2.9312708000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>-0.0064686975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-6.4686975000000004E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60" s="1">
-        <v>-6.3428526</v>
+        <v>-6.3428525999999996</v>
       </c>
       <c r="C60" s="1">
-        <v>-0.01880888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-1.880888E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -14852,10 +16272,10 @@
         <v>-14.098452</v>
       </c>
       <c r="C61" s="1">
-        <v>-0.052531548</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-5.2531547999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
@@ -14866,144 +16286,144 @@
         <v>-0.11096892</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-9</v>
       </c>
       <c r="B65" s="1">
-        <v>0.07896372</v>
+        <v>7.8963720000000001E-2</v>
       </c>
       <c r="C65" s="1">
-        <v>-33.747623</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-33.747622999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-8</v>
       </c>
       <c r="B66" s="1">
-        <v>0.047391105</v>
+        <v>4.7391105000000003E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>-18.961546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-18.961545999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-7</v>
       </c>
       <c r="B67" s="1">
-        <v>0.026596103</v>
+        <v>2.6596102999999999E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>-8.59856</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-8.5985600000000009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-6</v>
       </c>
       <c r="B68" s="1">
-        <v>0.014228077</v>
+        <v>1.4228077E-2</v>
       </c>
       <c r="C68" s="1">
-        <v>-4.062041</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-4.0620409999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.010595336</v>
+        <v>1.0595336E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>-1.9164076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-1.9164076000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-4</v>
       </c>
       <c r="B70" s="1">
-        <v>0.007458121</v>
+        <v>7.4581209999999998E-3</v>
       </c>
       <c r="C70" s="1">
-        <v>-0.9002431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.90024309999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.0047400207</v>
+        <v>4.7400207E-3</v>
       </c>
       <c r="C71" s="1">
         <v>-0.4190854</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-2</v>
       </c>
       <c r="B72" s="1">
-        <v>0.0054967566</v>
+        <v>5.4967566000000004E-3</v>
       </c>
       <c r="C72" s="1">
-        <v>-0.20328234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.20328234000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-1</v>
       </c>
       <c r="B73" s="1">
-        <v>0.0012620636</v>
+        <v>1.2620636000000001E-3</v>
       </c>
       <c r="C73" s="1">
-        <v>-0.07664241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-7.6642409999999994E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74" s="1">
-        <v>0.00046089222</v>
+        <v>4.6089222000000001E-4</v>
       </c>
       <c r="C74" s="1">
-        <v>-0.00047610913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-4.7610912999999997E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>0.054298278</v>
+        <v>5.4298277999999998E-2</v>
       </c>
       <c r="C75" s="1">
-        <v>-0.00630617</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-6.3061699999999998E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="1">
-        <v>0.13565096</v>
+        <v>0.13565095999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>-0.0067393975</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-6.7393975E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -15011,43 +16431,43 @@
         <v>0.28312007</v>
       </c>
       <c r="C77" s="1">
-        <v>-0.0062620887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-6.2620886999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="1">
-        <v>0.60865444</v>
+        <v>0.60865444000000002</v>
       </c>
       <c r="C78" s="1">
-        <v>-0.005083371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-5.0833709999999997E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5</v>
       </c>
       <c r="B79" s="1">
-        <v>1.3030722</v>
+        <v>1.3030721999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>0.0016115954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>1.6115954000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
       <c r="B80" s="1">
-        <v>2.7867546</v>
+        <v>2.7867546000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>0.011163644</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>1.1163644E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7</v>
       </c>
@@ -15055,10 +16475,10 @@
         <v>5.9403324</v>
       </c>
       <c r="C81" s="1">
-        <v>0.041404538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>4.1404537999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -15066,10 +16486,10 @@
         <v>13.031914</v>
       </c>
       <c r="C82" s="1">
-        <v>0.10206536</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.10206535999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
@@ -15080,54 +16500,54 @@
         <v>0.19717012</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-9</v>
       </c>
       <c r="B86" s="1">
-        <v>0.22321169</v>
+        <v>0.22321168999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>-14.626375</v>
+        <v>-14.626374999999999</v>
       </c>
       <c r="D86">
-        <v>0.012379404</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1.2379404E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-8</v>
       </c>
       <c r="B87" s="1">
-        <v>0.13601841</v>
+        <v>0.13601841000000001</v>
       </c>
       <c r="C87" s="1">
-        <v>-4.564769</v>
+        <v>-4.5647690000000001</v>
       </c>
       <c r="D87">
-        <v>-4.516101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-4.5161009999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>-7</v>
       </c>
       <c r="B88" s="1">
-        <v>0.14629805</v>
+        <v>0.14629805000000001</v>
       </c>
       <c r="C88" s="1">
         <v>-1.5269351</v>
       </c>
       <c r="D88">
-        <v>-8.612458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-8.6124580000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-6</v>
       </c>
       <c r="B89" s="1">
-        <v>0.14796278</v>
+        <v>0.14796277999999999</v>
       </c>
       <c r="C89" s="1">
         <v>-0.23032932</v>
@@ -15136,189 +16556,189 @@
         <v>-10.595551</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.06949907</v>
+        <v>6.9499069999999996E-2</v>
       </c>
       <c r="C90" s="1">
-        <v>0.18795593</v>
+        <v>0.18795592999999999</v>
       </c>
       <c r="D90">
-        <v>-5.7059674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-5.7059673999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-4</v>
       </c>
       <c r="B91" s="1">
-        <v>0.024720635</v>
+        <v>2.4720635000000001E-2</v>
       </c>
       <c r="C91" s="1">
-        <v>0.17999032</v>
+        <v>0.17999032000000001</v>
       </c>
       <c r="D91">
-        <v>-2.1551173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-2.1551173000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-3</v>
       </c>
       <c r="B92" s="1">
-        <v>0.0043899207</v>
+        <v>4.3899207000000001E-3</v>
       </c>
       <c r="C92" s="1">
-        <v>0.13046296</v>
+        <v>0.13046295999999999</v>
       </c>
       <c r="D92">
-        <v>-0.75491464</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.75491463999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-2</v>
       </c>
       <c r="B93" s="1">
-        <v>0.0005246907</v>
+        <v>5.2469069999999999E-4</v>
       </c>
       <c r="C93" s="1">
-        <v>0.08915325</v>
+        <v>8.9153250000000003E-2</v>
       </c>
       <c r="D93">
-        <v>-0.25232193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.25232193000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-1</v>
       </c>
       <c r="B94" s="1">
-        <v>9.3729366e-5</v>
+        <v>9.3729365999999998E-5</v>
       </c>
       <c r="C94" s="1">
-        <v>0.05878133</v>
+        <v>5.878133E-2</v>
       </c>
       <c r="D94">
-        <v>-0.07889803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-7.8898029999999994E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
       <c r="B95" s="1">
-        <v>0.0031871987</v>
+        <v>3.1871986999999998E-3</v>
       </c>
       <c r="C95" s="1">
-        <v>0.0001317425</v>
+        <v>1.3174249999999999E-4</v>
       </c>
       <c r="D95">
-        <v>-0.0029797556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-2.9797555999999999E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>0.0863046</v>
+        <v>8.6304599999999995E-2</v>
       </c>
       <c r="C96" s="1">
-        <v>-0.034294963</v>
+        <v>-3.4294962999999998E-2</v>
       </c>
       <c r="D96">
-        <v>-0.0015714865</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-1.5714864999999999E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" s="1">
-        <v>0.21883725</v>
+        <v>0.21883725000000001</v>
       </c>
       <c r="C97" s="1">
-        <v>-0.043121</v>
+        <v>-4.3121E-2</v>
       </c>
       <c r="D97">
-        <v>-0.0024510433</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-2.4510433000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
       <c r="B98" s="1">
-        <v>0.43520015</v>
+        <v>0.43520015000000001</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.028488409</v>
+        <v>-2.8488408999999999E-2</v>
       </c>
       <c r="D98">
-        <v>-0.0043684547</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-4.3684546999999997E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="1">
-        <v>0.86809766</v>
+        <v>0.86809765999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>0.00037927547</v>
+        <v>3.7927547000000001E-4</v>
       </c>
       <c r="D99">
-        <v>-0.0027855986</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-2.7855986E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
       <c r="B100" s="1">
-        <v>1.7279714</v>
+        <v>1.7279713999999999</v>
       </c>
       <c r="C100" s="1">
-        <v>0.0704306</v>
+        <v>7.0430599999999996E-2</v>
       </c>
       <c r="D100">
-        <v>-0.0038887556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-3.8887556E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
       <c r="B101" s="1">
-        <v>3.373935</v>
+        <v>3.3739349999999999</v>
       </c>
       <c r="C101" s="1">
-        <v>0.2159049</v>
+        <v>0.21590490000000001</v>
       </c>
       <c r="D101">
-        <v>-0.0026423365</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-2.6423365000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
       <c r="B102" s="1">
-        <v>6.652726</v>
+        <v>6.6527260000000004</v>
       </c>
       <c r="C102" s="1">
-        <v>0.5255614</v>
+        <v>0.52556139999999996</v>
       </c>
       <c r="D102" s="2">
-        <v>-0.00036398653</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-3.6398653E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -15326,76 +16746,85 @@
         <v>13.255661</v>
       </c>
       <c r="C103" s="1">
-        <v>1.1668469</v>
+        <v>1.1668468999999999</v>
       </c>
       <c r="D103">
-        <v>0.004946362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>4.9463620000000002E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9</v>
       </c>
       <c r="B104" s="1">
-        <v>17.068747</v>
+        <v>17.068746999999998</v>
       </c>
       <c r="C104" s="1">
-        <v>1.6581441</v>
+        <v>1.6581440999999999</v>
       </c>
       <c r="D104">
-        <v>0.013845437</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1" spans="1:2">
+        <v>1.3845437E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>-19</v>
       </c>
       <c r="B107">
-        <v>0.19547611</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:2">
+        <v>0.19547611000000001</v>
+      </c>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-18</v>
       </c>
       <c r="B108">
-        <v>0.18720305</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:2">
+        <v>0.18720305000000001</v>
+      </c>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-17</v>
       </c>
       <c r="B109">
         <v>0.16599247</v>
       </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:2">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-16</v>
       </c>
       <c r="B110">
-        <v>0.15294011</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:2">
+        <v>0.15294010999999999</v>
+      </c>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-15</v>
       </c>
       <c r="B111">
-        <v>0.13670215</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="1:2">
+        <v>0.13670214999999999</v>
+      </c>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>-14</v>
       </c>
       <c r="B112">
-        <v>0.12649192</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:2">
+        <v>0.12649192000000001</v>
+      </c>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>-13</v>
       </c>
@@ -15403,143 +16832,143 @@
         <v>0.117427506</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="1:2">
+    <row r="114" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>-12</v>
       </c>
       <c r="B114">
-        <v>0.10124676</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:2">
+        <v>0.10124676000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>-11</v>
       </c>
       <c r="B115">
-        <v>0.09303444</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:2">
+        <v>9.3034439999999996E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>-10</v>
       </c>
       <c r="B116">
-        <v>0.08391374</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:2">
+        <v>8.3913740000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-9</v>
       </c>
       <c r="B117">
-        <v>0.07013829</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:2">
+        <v>7.0138290000000006E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>-8</v>
       </c>
       <c r="B118">
-        <v>0.061400782</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:2">
+        <v>6.1400782000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>-7</v>
       </c>
       <c r="B119">
-        <v>0.052375924</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:2">
+        <v>5.2375923999999997E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>-6</v>
       </c>
       <c r="B120">
-        <v>0.048664577</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:2">
+        <v>4.8664577000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-5</v>
       </c>
       <c r="B121">
-        <v>0.040652763</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:2">
+        <v>4.0652763000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>-4</v>
       </c>
       <c r="B122">
-        <v>0.027966907</v>
-      </c>
-    </row>
-    <row r="123" customFormat="1" spans="1:2">
+        <v>2.7966906999999999E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>-3</v>
       </c>
       <c r="B123">
-        <v>0.019559104</v>
-      </c>
-    </row>
-    <row r="124" customFormat="1" spans="1:2">
+        <v>1.9559104000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-2</v>
       </c>
       <c r="B124">
-        <v>0.016319577</v>
-      </c>
-    </row>
-    <row r="125" customFormat="1" spans="1:2">
+        <v>1.6319576999999998E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>-1</v>
       </c>
       <c r="B125">
-        <v>0.0065869386</v>
-      </c>
-    </row>
-    <row r="126" customFormat="1" spans="1:2">
+        <v>6.5869385999999999E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
       <c r="B126" s="2">
-        <v>-4.1313677e-5</v>
-      </c>
-    </row>
-    <row r="127" customFormat="1" spans="1:2">
+        <v>-4.1313677000000001E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127">
-        <v>-0.026003096</v>
-      </c>
-    </row>
-    <row r="128" customFormat="1" spans="1:2">
+        <v>-2.6003096E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
       <c r="B128">
-        <v>-0.053973094</v>
-      </c>
-    </row>
-    <row r="129" customFormat="1" spans="1:2">
+        <v>-5.3973093999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3</v>
       </c>
       <c r="B129">
-        <v>-0.089337215</v>
-      </c>
-    </row>
-    <row r="130" customFormat="1" spans="1:2">
+        <v>-8.9337214999999998E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4</v>
       </c>
       <c r="B130">
-        <v>-0.12822482</v>
-      </c>
-    </row>
-    <row r="131" customFormat="1" spans="1:2">
+        <v>-0.12822481999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -15547,15 +16976,15 @@
         <v>-0.17232043</v>
       </c>
     </row>
-    <row r="132" customFormat="1" spans="1:2">
+    <row r="132" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132">
-        <v>-0.22637533</v>
-      </c>
-    </row>
-    <row r="133" customFormat="1" spans="1:2">
+        <v>-0.22637533000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7</v>
       </c>
@@ -15563,7 +16992,7 @@
         <v>-0.29257864</v>
       </c>
     </row>
-    <row r="134" customFormat="1" spans="1:2">
+    <row r="134" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8</v>
       </c>
@@ -15571,7 +17000,7 @@
         <v>-0.3748763</v>
       </c>
     </row>
-    <row r="135" customFormat="1" spans="1:2">
+    <row r="135" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9</v>
       </c>
@@ -15579,7 +17008,7 @@
         <v>-0.4719198</v>
       </c>
     </row>
-    <row r="136" customFormat="1" spans="1:2">
+    <row r="136" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10</v>
       </c>
@@ -15587,71 +17016,71 @@
         <v>-0.5932402</v>
       </c>
     </row>
-    <row r="137" customFormat="1" spans="1:2">
+    <row r="137" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11</v>
       </c>
       <c r="B137">
-        <v>-0.7523632</v>
-      </c>
-    </row>
-    <row r="138" customFormat="1" spans="1:2">
+        <v>-0.75236320000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>12</v>
       </c>
       <c r="B138">
-        <v>-0.99819934</v>
-      </c>
-    </row>
-    <row r="139" customFormat="1" spans="1:2">
+        <v>-0.99819933999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13</v>
       </c>
       <c r="B139">
-        <v>-1.3737204</v>
-      </c>
-    </row>
-    <row r="140" customFormat="1" spans="1:2">
+        <v>-1.3737204000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>14</v>
       </c>
       <c r="B140">
-        <v>-1.9723593</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="1:2">
+        <v>-1.9723592999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>15</v>
       </c>
       <c r="B141">
-        <v>-2.9214938</v>
-      </c>
-    </row>
-    <row r="142" customFormat="1" spans="1:2">
+        <v>-2.9214937999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>16</v>
       </c>
       <c r="B142">
-        <v>-4.4572673</v>
-      </c>
-    </row>
-    <row r="143" customFormat="1" spans="1:2">
+        <v>-4.4572672999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>17</v>
       </c>
       <c r="B143">
-        <v>-7.0099854</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:2">
+        <v>-7.0099853999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>18</v>
       </c>
       <c r="B144">
-        <v>-10.672406</v>
-      </c>
-    </row>
-    <row r="145" customFormat="1" spans="1:2">
+        <v>-10.672406000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>19</v>
       </c>
@@ -15659,50 +17088,49 @@
         <v>-13.960848</v>
       </c>
     </row>
-    <row r="146" customFormat="1"/>
-    <row r="147" customFormat="1"/>
+    <row r="146" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-9</v>
       </c>
       <c r="B2" s="1">
-        <v>27.640865</v>
+        <v>27.640865000000002</v>
       </c>
       <c r="C2" s="1"/>
       <c r="M2">
         <f>B2*B20</f>
-        <v>-7.59987711521605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-7.5998771152160511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-8</v>
       </c>
@@ -15711,74 +17139,74 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C10" si="0">B2/B3</f>
-        <v>2.55412727675441</v>
+        <v>2.5541272767544085</v>
       </c>
       <c r="M3">
         <f>B3*B19</f>
-        <v>-2.47612429627054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-2.4761242962705401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-7</v>
       </c>
       <c r="B4" s="1">
-        <v>4.382941</v>
+        <v>4.3829409999999998</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>2.46912723671161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2.4691272367116053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-6</v>
       </c>
       <c r="B5" s="1">
-        <v>1.9706708</v>
+        <v>1.9706707999999999</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>2.22408582904867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2.2240858290486671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0564363</v>
+        <v>1.0564363000000001</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>1.86539481840978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.8653948184097799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.63349485</v>
+        <v>0.63349485000000005</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1.66763202573786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1.6676320257378572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.3798903</v>
+        <v>0.37989030000000001</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>1.66757311255381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.6675731125538085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -15787,115 +17215,115 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>1.81621265768561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.8162126576856108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-1</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0878139</v>
+        <v>8.78139E-2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>2.38192586822815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.3819258682281506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.0033241773</v>
+        <v>-3.3241772999999999E-3</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.020296546</v>
+        <v>-2.0296545999999999E-2</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:C19" si="1">B13/B12</f>
-        <v>2.17295987208858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2.1729598720885814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.04410358</v>
+        <v>-4.4103580000000003E-2</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>1.54920530260809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1.5492053026080874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.0683255</v>
+        <v>-6.8325499999999997E-2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>1.36046307747473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.360463077474735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.09295432</v>
+        <v>-9.2954320000000007E-2</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>1.29969662518106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.2996966251810567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.120812416</v>
+        <v>-0.12081241600000001</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>1.26271756704212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1.2627175670421158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.15255196</v>
+        <v>-0.15255195999999999</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>1.24833479687839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1.2483347968783884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.19043592</v>
+        <v>-0.19043592000000001</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>1.20147428069242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1.2014742806924239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -15904,39 +17332,39 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>1.20168763761241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>1.2016876376124075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.27495077</v>
+        <v>-0.27495077000000001</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-9</v>
       </c>
       <c r="B23" s="1">
-        <v>-27.722914</v>
+        <v>-27.722913999999999</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-8</v>
       </c>
@@ -15945,16 +17373,16 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-7</v>
       </c>
       <c r="B25" s="1">
-        <v>-4.3405313</v>
+        <v>-4.3405313000000003</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-6</v>
       </c>
@@ -15963,97 +17391,97 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-5</v>
       </c>
       <c r="B27" s="1">
-        <v>-1.0209444</v>
+        <v>-1.0209444000000001</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-4</v>
       </c>
       <c r="B28" s="1">
-        <v>-0.6101537</v>
+        <v>-0.61015370000000002</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-3</v>
       </c>
       <c r="B29" s="1">
-        <v>-0.36627775</v>
+        <v>-0.36627775000000001</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-2</v>
       </c>
       <c r="B30" s="1">
-        <v>-0.20092449</v>
+        <v>-0.20092449000000001</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1</v>
       </c>
       <c r="B31" s="1">
-        <v>-0.08410366</v>
+        <v>-8.4103659999999997E-2</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>3.6705158e-6</v>
+        <v>3.6705158E-6</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" s="1">
-        <v>0.01941191</v>
+        <v>1.9411910000000001E-2</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="1">
-        <v>0.042239767</v>
+        <v>4.2239766999999998E-2</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.06451423</v>
+        <v>6.4514230000000006E-2</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>0.08925299</v>
+        <v>8.9252990000000004E-2</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -16062,68 +17490,68 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1463012</v>
+        <v>0.14630119999999999</v>
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39" s="1">
-        <v>0.17883517</v>
+        <v>0.17883516999999999</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" s="1">
-        <v>0.21654041</v>
+        <v>0.21654040999999999</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>0.2611509</v>
+        <v>0.26115090000000002</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" ht="14" customHeight="1" spans="2:3">
+    <row r="42" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-9</v>
       </c>
       <c r="B44">
-        <v>-0.269012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.26901199999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-8</v>
       </c>
       <c r="B45">
-        <v>-0.22373974</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-0.22373973999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-7</v>
       </c>
@@ -16131,15 +17559,15 @@
         <v>-0.18703891</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-6</v>
       </c>
       <c r="B47">
-        <v>-0.15044507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.15044506999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-5</v>
       </c>
@@ -16147,63 +17575,63 @@
         <v>-0.119562104</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-4</v>
       </c>
       <c r="B49">
-        <v>-0.09222661</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-9.2226610000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-3</v>
       </c>
       <c r="B50">
-        <v>-0.067078896</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-6.7078895999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-2</v>
       </c>
       <c r="B51">
-        <v>-0.043554664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-4.3554664E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-1</v>
       </c>
       <c r="B52">
-        <v>-0.020611705</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>-2.0611705000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="2">
-        <v>-0.00058654684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-5.8654683999999997E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54">
-        <v>0.087011226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>8.7011225999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>0.2052266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.20522660000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -16211,15 +17639,15 @@
         <v>0.37111485</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57">
-        <v>0.6257011</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.62570110000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
@@ -16227,7 +17655,7 @@
         <v>1.0405385</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -16235,15 +17663,15 @@
         <v>1.953222</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
-        <v>4.371949</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>4.3719489999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -16251,7 +17679,7 @@
         <v>10.861124</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
@@ -16259,12 +17687,12 @@
         <v>27.767685</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-9</v>
       </c>
@@ -16272,7 +17700,7 @@
         <v>-27.856638</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-8</v>
       </c>
@@ -16280,15 +17708,15 @@
         <v>-10.887781</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-7</v>
       </c>
       <c r="B67">
-        <v>-4.3305106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-4.3305106000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-6</v>
       </c>
@@ -16296,7 +17724,7 @@
         <v>-1.9108254</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-5</v>
       </c>
@@ -16304,79 +17732,79 @@
         <v>-1.0022662</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-4</v>
       </c>
       <c r="B70">
-        <v>-0.59952325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.59952324999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-3</v>
       </c>
       <c r="B71">
-        <v>-0.35421273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.35421272999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-2</v>
       </c>
       <c r="B72">
-        <v>-0.19452757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.19452757000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-1</v>
       </c>
       <c r="B73">
-        <v>-0.0820593</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-8.2059300000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74" s="2">
-        <v>-0.00012711884</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-1.2711883999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75">
-        <v>0.020805579</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>2.0805579000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>0.0389756</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>3.8975599999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77">
-        <v>0.06400264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>6.400264E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78">
-        <v>0.08598838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>8.5988380000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5</v>
       </c>
@@ -16384,23 +17812,23 @@
         <v>0.11236394</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
       <c r="B80">
-        <v>0.14168715</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.14168715000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7</v>
       </c>
       <c r="B81">
-        <v>0.17348513</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.17348512999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -16408,17 +17836,18 @@
         <v>0.21015137</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9</v>
       </c>
       <c r="B83">
-        <v>0.25175706</v>
+        <v>0.25175705999999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/word2vecの詳細.xlsx
+++ b/word2vecの詳細.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24350" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24350" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>語彙</t>
   </si>
@@ -808,77 +808,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>計算の答え</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>コタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>第1項</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>第2項</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>単語</t>
-    <rPh sb="0" eb="2">
-      <t>タンゴ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>w000 * w1000 + w010 * w1001</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -977,11 +906,102 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>w002 * w1000 + w012 * w1001</t>
+    <t>w002 * w1010 + w012 * w1011</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>w002 * w1010 + w012 * w1011</t>
+    <t>w002 * w1110 + w012 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1120 + w012 * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>計算の答え</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>計算式の項</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nの出力</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>正解</t>
+    <rPh sb="0" eb="2">
+      <t>セイカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1110 + w011 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1020 + w010 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w000 * w1120 + w010 * w1121</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1010 + w011 * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1100 + w011 * w1101</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1110 + w011 * w1111</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1010 + w011 * w1011</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1020 + w011 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w001 * w1020 + w011 * w1021</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>w002 * w1000 + w012 * w1001</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -990,14 +1010,6 @@
   </si>
   <si>
     <t>w002 * w1100 + w012 * w1101</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>w002 * w1110 + w012 * w1111</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>w002 * w1120 + w012 * w1121</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1266,10 +1278,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,11 +1550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141743160"/>
-        <c:axId val="126349600"/>
+        <c:axId val="350557432"/>
+        <c:axId val="157146952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141743160"/>
+        <c:axId val="350557432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,12 +1611,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126349600"/>
+        <c:crossAx val="157146952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126349600"/>
+        <c:axId val="157146952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1673,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141743160"/>
+        <c:crossAx val="350557432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1951,11 +1963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142756280"/>
-        <c:axId val="142754712"/>
+        <c:axId val="352381688"/>
+        <c:axId val="352382080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142756280"/>
+        <c:axId val="352381688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,12 +2024,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142754712"/>
+        <c:crossAx val="352382080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142754712"/>
+        <c:axId val="352382080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2086,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142756280"/>
+        <c:crossAx val="352381688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2364,11 +2376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141504048"/>
-        <c:axId val="141504432"/>
+        <c:axId val="351650248"/>
+        <c:axId val="351769768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141504048"/>
+        <c:axId val="351650248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,12 +2437,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141504432"/>
+        <c:crossAx val="351769768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141504432"/>
+        <c:axId val="351769768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2499,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141504048"/>
+        <c:crossAx val="351650248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2777,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142208832"/>
-        <c:axId val="141532280"/>
+        <c:axId val="352276224"/>
+        <c:axId val="352284808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142208832"/>
+        <c:axId val="352276224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,12 +2850,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141532280"/>
+        <c:crossAx val="352284808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141532280"/>
+        <c:axId val="352284808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2912,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142208832"/>
+        <c:crossAx val="352276224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3190,11 +3202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142794976"/>
-        <c:axId val="142795360"/>
+        <c:axId val="352324904"/>
+        <c:axId val="352325288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142794976"/>
+        <c:axId val="352324904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,12 +3263,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142795360"/>
+        <c:crossAx val="352325288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142795360"/>
+        <c:axId val="352325288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,7 +3325,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142794976"/>
+        <c:crossAx val="352324904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3579,11 +3591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142784488"/>
-        <c:axId val="141715048"/>
+        <c:axId val="156631912"/>
+        <c:axId val="352384040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142784488"/>
+        <c:axId val="156631912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,12 +3652,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141715048"/>
+        <c:crossAx val="352384040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141715048"/>
+        <c:axId val="352384040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3714,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142784488"/>
+        <c:crossAx val="156631912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3968,11 +3980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392407464"/>
-        <c:axId val="140660792"/>
+        <c:axId val="352376592"/>
+        <c:axId val="352376984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392407464"/>
+        <c:axId val="352376592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,12 +4041,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140660792"/>
+        <c:crossAx val="352376984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140660792"/>
+        <c:axId val="352376984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4103,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392407464"/>
+        <c:crossAx val="352376592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4390,11 +4402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140661968"/>
-        <c:axId val="140659616"/>
+        <c:axId val="352378944"/>
+        <c:axId val="352377376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140661968"/>
+        <c:axId val="352378944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,12 +4463,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140659616"/>
+        <c:crossAx val="352377376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140659616"/>
+        <c:axId val="352377376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4513,7 +4525,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140661968"/>
+        <c:crossAx val="352378944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4804,11 +4816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140660008"/>
-        <c:axId val="142753144"/>
+        <c:axId val="352378160"/>
+        <c:axId val="352378552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140660008"/>
+        <c:axId val="352378160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4865,12 +4877,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142753144"/>
+        <c:crossAx val="352378552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142753144"/>
+        <c:axId val="352378552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4927,7 +4939,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140660008"/>
+        <c:crossAx val="352378160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5218,11 +5230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142755496"/>
-        <c:axId val="142755888"/>
+        <c:axId val="352380512"/>
+        <c:axId val="352380904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142755496"/>
+        <c:axId val="352380512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5279,12 +5291,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142755888"/>
+        <c:crossAx val="352380904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142755888"/>
+        <c:axId val="352380904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5341,7 +5353,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142755496"/>
+        <c:crossAx val="352380512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13432,7 +13444,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:P48"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -14000,6 +14012,491 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -14015,21 +14512,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14133,745 +14630,6 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H17" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C33" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F38" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F40" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="10">
-        <v>1</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C44" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C45" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H47" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F48" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F49" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F50" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C53" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C54" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C55" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H57" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57" s="10">
-        <v>1</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F58" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F59" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F60" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
